--- a/biology/Zoologie/Gynandromorphisme/Gynandromorphisme.xlsx
+++ b/biology/Zoologie/Gynandromorphisme/Gynandromorphisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gynandromorphisme est une atypicité observable chez un individu qui présente à la fois des régions mâles et des régions femelles. Il touche parfois certains animaux, principalement des insectes, mais aussi des oiseaux, crustacés, etc. 
 </t>
@@ -511,7 +523,9 @@
           <t>Éléments de définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un individu gynandromorphe est atteint d'une forme de chimérisme, dans laquelle les deux populations de cellules génétiquement distinctes sont mâle et femelle.
 Le « gynandromorphisme bilatéral » est la division du corps en deux parties distinctes, un côté mâle et un côté femelle.
@@ -551,7 +565,9 @@
           <t>Cas de gynandromorphisme chez les abeilles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les scientifiques ont commencé par étudier ce phénomène très rare à partir de 1953. Mais ce phénomène tellement rare demeure sans réponse chez Apis mellifera.
 Zgurzynski un apiculteur américain a déclaré avoir découvert une abeille gynandromorphe dans l'une de ses ruches. L'abeille était affectée d'une mutation touchant la coloration de ses yeux et la rendant partiellement aveugle. Il est possible qu'une aberration se soit produite à un stade ultérieur du développement de l'abeille.
@@ -585,6 +601,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
